--- a/output7/【河洛文讀注音-閩拼調號】《了凡四訓【第二篇、改過之法】》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《了凡四訓【第二篇、改過之法】》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53282677-4E03-45C5-9E2A-CA9B86EE09E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C38E10-5217-46BC-94C2-25F52438F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -11001,7 +11001,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -11167,7 +11167,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
